--- a/trunk/Lab6/RESULTADOS DE LAS COMPARACIONES MAXIMALES.xlsx
+++ b/trunk/Lab6/RESULTADOS DE LAS COMPARACIONES MAXIMALES.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>algoritmos.txt</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>SRI google.txt</t>
+  </si>
+  <si>
+    <t>PORCENTAJE DE PLAGIO</t>
+  </si>
+  <si>
+    <t>TIEMPO DE PROCESAMIENTO</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -500,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D53"/>
+  <dimension ref="A2:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -511,6 +520,14 @@
     <col min="1" max="1" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:4">
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>0</v>
@@ -537,25 +554,50 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="C7">
+        <v>99</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
+      <c r="C8">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>6</v>
+      </c>
+      <c r="C9">
+        <v>92</v>
+      </c>
+      <c r="D9">
+        <f>60+33</f>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4">

--- a/trunk/Lab6/RESULTADOS DE LAS COMPARACIONES MAXIMALES.xlsx
+++ b/trunk/Lab6/RESULTADOS DE LAS COMPARACIONES MAXIMALES.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>algoritmos.txt</t>
   </si>
@@ -117,12 +117,6 @@
     <t>Informe final SRI.txt</t>
   </si>
   <si>
-    <t>introducción a los sistemas de recuperación de información.txt</t>
-  </si>
-  <si>
-    <t>Motor de Búsqueda 1.txt</t>
-  </si>
-  <si>
     <t>Motores de busqueda 2.txt</t>
   </si>
   <si>
@@ -177,7 +171,10 @@
     <t>TIEMPO DE PROCESAMIENTO</t>
   </si>
   <si>
-    <t>*</t>
+    <t>introduccion a los sistemas de recuperacion de informacion.txt</t>
+  </si>
+  <si>
+    <t>Motor de Busqueda 1.txt</t>
   </si>
 </sst>
 </file>
@@ -193,12 +190,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -213,8 +216,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,320 +513,552 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D53"/>
+  <dimension ref="B2:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="C2" t="s">
+    <row r="2" spans="2:7">
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1">
+        <v>19262</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1592</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44828</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>35136</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>82660</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7943</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>98</v>
+      </c>
+      <c r="E9" s="1">
+        <v>76794</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>99</v>
+      </c>
+      <c r="E10" s="1">
+        <v>92471</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1">
+        <v>33925</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>96</v>
+      </c>
+      <c r="E12" s="1">
+        <v>52088</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1">
+        <v>14351</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>39</v>
+      </c>
+      <c r="E14" s="1">
+        <v>14066</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>53</v>
+      </c>
+      <c r="E15" s="1">
+        <v>46217</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1">
+        <v>38987</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <v>100</v>
+      </c>
+      <c r="E17" s="1">
+        <v>24530</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <v>100</v>
+      </c>
+      <c r="E18" s="1">
+        <v>24048</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <v>100</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45116</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <v>100</v>
+      </c>
+      <c r="E20" s="1">
+        <v>78221</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
+        <v>81</v>
+      </c>
+      <c r="E21" s="1">
+        <v>107678</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <v>98</v>
+      </c>
+      <c r="E22" s="1">
+        <v>86935</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <v>34</v>
+      </c>
+      <c r="E23" s="1">
+        <v>6938</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <v>46</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1829</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
+        <v>34</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4243</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1">
+        <v>31</v>
+      </c>
+      <c r="E26" s="1">
+        <v>32074</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
         <v>37</v>
       </c>
-      <c r="D3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>67</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>99</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>52</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>92</v>
-      </c>
-      <c r="D9">
-        <f>60+33</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A1:A52">
-    <sortCondition ref="A1"/>
+  <sortState ref="B1:B52">
+    <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/trunk/Lab6/RESULTADOS DE LAS COMPARACIONES MAXIMALES.xlsx
+++ b/trunk/Lab6/RESULTADOS DE LAS COMPARACIONES MAXIMALES.xlsx
@@ -190,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +200,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,9 +222,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,17 +523,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -922,138 +930,435 @@
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <v>56</v>
+      </c>
+      <c r="E27" s="2">
+        <v>56375</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
+        <v>57</v>
+      </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
+        <v>68</v>
+      </c>
+      <c r="E28" s="2">
+        <v>14266</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
+        <v>68</v>
+      </c>
+      <c r="E29" s="2">
+        <v>31406</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
+        <v>96</v>
+      </c>
+      <c r="E30" s="2">
+        <v>17531</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
+        <v>75</v>
+      </c>
+      <c r="E31" s="2">
+        <v>14485</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <v>60</v>
+      </c>
+      <c r="E32" s="2">
+        <v>16015</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2">
+        <v>12594</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2">
+        <v>23</v>
+      </c>
+      <c r="E34" s="2">
+        <v>7125</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
+        <v>44</v>
+      </c>
+      <c r="E35" s="2">
+        <v>138969</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3">
+        <v>9.6527777777777768E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2">
+        <v>96</v>
+      </c>
+      <c r="E36" s="2">
+        <v>24906</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2">
+        <v>60</v>
+      </c>
+      <c r="E37" s="2">
+        <v>50172</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2">
+        <v>40</v>
+      </c>
+      <c r="E38" s="2">
+        <v>34891</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>4187</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
+        <v>90</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3219</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2">
+        <v>56</v>
+      </c>
+      <c r="E41" s="2">
+        <v>31164</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2">
+        <v>39</v>
+      </c>
+      <c r="E42" s="2">
+        <v>16359</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2">
+        <v>98</v>
+      </c>
+      <c r="E43" s="2">
+        <v>24812</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2">
+        <v>99</v>
+      </c>
+      <c r="E44" s="2">
+        <v>58796</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2">
+        <v>96</v>
+      </c>
+      <c r="E45" s="2">
+        <v>52422</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2">
+        <v>98</v>
+      </c>
+      <c r="E46" s="2">
+        <v>42063</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
+    <row r="47" spans="2:7">
+      <c r="B47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2">
+        <v>98</v>
+      </c>
+      <c r="E47" s="2">
+        <v>56578</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2">
+        <v>96</v>
+      </c>
+      <c r="E48" s="2">
+        <v>62375</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="3">
+        <v>4.3750000000000004E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2">
+        <v>99</v>
+      </c>
+      <c r="E49" s="2">
+        <v>78219</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="3">
+        <v>5.486111111111111E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2">
+        <v>100</v>
+      </c>
+      <c r="E50" s="2">
+        <v>94219</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="3">
+        <v>6.5972222222222224E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2">
+        <v>99</v>
+      </c>
+      <c r="E51" s="2">
+        <v>97938</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3">
+        <v>6.805555555555555E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2">
+        <v>38</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45234</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2">
+        <v>97</v>
+      </c>
+      <c r="E53" s="2">
+        <v>32437</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
